--- a/projet/Statistique/data/données nettoyées/GS 400-15.xlsx
+++ b/projet/Statistique/data/données nettoyées/GS 400-15.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Conforme" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Conforme_with_outliers" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Conforme_without_outliers" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intervale_de_Confiance" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2889,4 +2890,264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Intervalle de Confiance</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Impureté [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Purete ONO [%]</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>C [%]</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Si [%]</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Mn [%]</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Cu [%]</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Cr [%]</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>P [%]</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Ni [%]</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Mo [%]</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Sn [%]</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Sb [%]</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Al [%]</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>S [%]</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Mg [%]</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Pb [%]</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Ti [%]</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>As [%]</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Bi [%]</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>V [%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Borne_inf</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6371820002915017</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09752980529519176</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.285851336874949</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.554746956710474</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2047027134870169</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02428196403710062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03229647717552127</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02803578662968869</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01019231806642685</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0008680275860187512</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.004362997513557752</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.003658843937247426</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.007781783867567589</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.003706694568174949</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03362154778046705</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0006588439372474252</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0005794219686237126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Borne_sup</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6678179997084984</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1099701947048083</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.527398663125051</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.664003043289526</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.218047286512983</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.02846803596289937</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03395352282447874</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03396421337031131</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01105768193357315</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002131972413981249</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.005137002486442249</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.004841156062752575</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01321821613243241</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00704330543182505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.07087845221953296</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.001841156062752575</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.001170578031376287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>